--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquityWingVolPublisher.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Equities/EquityWingVolPublisher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Equities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D926A1-CB91-4FF4-BDD1-27D5C34D105A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F69A45-00D5-46C6-A0EF-43D93B2E58C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="90" windowWidth="18075" windowHeight="10680" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHPData-1Y" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,15 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2310,7 +2318,7 @@
       </c>
       <c r="L10" s="7">
         <f ca="1">NOW()</f>
-        <v>43216.705065393522</v>
+        <v>43640.677897685186</v>
       </c>
       <c r="N10" s="21"/>
     </row>
@@ -2351,7 +2359,7 @@
       </c>
       <c r="L11" s="9">
         <f ca="1">L10</f>
-        <v>43216.705065393522</v>
+        <v>43640.677897685186</v>
       </c>
       <c r="N11" s="21"/>
     </row>
@@ -2834,7 +2842,7 @@
       </c>
       <c r="L24" s="12">
         <f ca="1">L10</f>
-        <v>43216.705065393522</v>
+        <v>43640.677897685186</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.5" thickBot="1">
